--- a/Code/Results/Cases/Case_9_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,105 +439,123 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014476351029292</v>
+        <v>1.013466102838913</v>
       </c>
       <c r="D2">
-        <v>1.032584832604011</v>
+        <v>1.030899852241228</v>
       </c>
       <c r="E2">
-        <v>1.018703946770239</v>
+        <v>1.017918586491538</v>
       </c>
       <c r="F2">
-        <v>1.022893404418538</v>
+        <v>1.02245577231257</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052511963516566</v>
+        <v>1.051618014464054</v>
       </c>
       <c r="J2">
-        <v>1.03623253303922</v>
+        <v>1.035251371942234</v>
       </c>
       <c r="K2">
-        <v>1.043608133332452</v>
+        <v>1.041944854827131</v>
       </c>
       <c r="L2">
-        <v>1.029908713543695</v>
+        <v>1.029133806046635</v>
       </c>
       <c r="M2">
-        <v>1.034042751486747</v>
+        <v>1.033610881903399</v>
       </c>
       <c r="N2">
-        <v>1.015316125910291</v>
+        <v>1.016170475298334</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.035514927280183</v>
+        <v>1.035173128992888</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041905009222455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040737674627145</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023020068353634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.018754630030121</v>
+        <v>1.017468722936083</v>
       </c>
       <c r="D3">
-        <v>1.035582634302786</v>
+        <v>1.033578502710148</v>
       </c>
       <c r="E3">
-        <v>1.022144241840262</v>
+        <v>1.021105961094724</v>
       </c>
       <c r="F3">
-        <v>1.026143628973829</v>
+        <v>1.025587352184728</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053888457887031</v>
+        <v>1.052803545985054</v>
       </c>
       <c r="J3">
-        <v>1.038746761773283</v>
+        <v>1.037494241713993</v>
       </c>
       <c r="K3">
-        <v>1.045779605215461</v>
+        <v>1.043799037494491</v>
       </c>
       <c r="L3">
-        <v>1.032501411250086</v>
+        <v>1.031475725775157</v>
       </c>
       <c r="M3">
-        <v>1.036452577795123</v>
+        <v>1.035902980090638</v>
       </c>
       <c r="N3">
-        <v>1.016222284670155</v>
+        <v>1.01679835477274</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037422153976625</v>
+        <v>1.036987182242373</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043437764430222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042045801734407</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023429918376567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02146603466919</v>
+        <v>1.020007818057423</v>
       </c>
       <c r="D4">
-        <v>1.037485560250971</v>
+        <v>1.035280749415309</v>
       </c>
       <c r="E4">
-        <v>1.024329720618709</v>
+        <v>1.02313329516375</v>
       </c>
       <c r="F4">
-        <v>1.028212244936418</v>
+        <v>1.027581982600868</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054750236947603</v>
+        <v>1.05354513056043</v>
       </c>
       <c r="J4">
-        <v>1.040336132073081</v>
+        <v>1.038913208653112</v>
       </c>
       <c r="K4">
-        <v>1.047151676478301</v>
+        <v>1.044971227024142</v>
       </c>
       <c r="L4">
-        <v>1.034143114065437</v>
+        <v>1.03296031409936</v>
       </c>
       <c r="M4">
-        <v>1.037981691360497</v>
+        <v>1.037358535261457</v>
       </c>
       <c r="N4">
-        <v>1.016794840089922</v>
+        <v>1.017195693655288</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.03863234901033</v>
+        <v>1.038139161287114</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044408818408154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042875605631414</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023686569025634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022598047627541</v>
+        <v>1.021067930212436</v>
       </c>
       <c r="D5">
-        <v>1.038283031310283</v>
+        <v>1.035994530429181</v>
       </c>
       <c r="E5">
-        <v>1.02524438941574</v>
+        <v>1.023981834413003</v>
       </c>
       <c r="F5">
-        <v>1.029076192348372</v>
+        <v>1.028415095767038</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055109369738946</v>
+        <v>1.053854042046641</v>
       </c>
       <c r="J5">
-        <v>1.041000767577803</v>
+        <v>1.039506574806127</v>
       </c>
       <c r="K5">
-        <v>1.047726784390195</v>
+        <v>1.045462896954869</v>
       </c>
       <c r="L5">
-        <v>1.034830183736204</v>
+        <v>1.033581619030459</v>
       </c>
       <c r="M5">
-        <v>1.03861978487612</v>
+        <v>1.037965941745957</v>
       </c>
       <c r="N5">
-        <v>1.017035684912889</v>
+        <v>1.017362800199021</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039137358379991</v>
+        <v>1.038619884213887</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044822588357653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043231093544072</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02379458418981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02279383143638</v>
+        <v>1.021250694389937</v>
       </c>
       <c r="D6">
-        <v>1.038423793277373</v>
+        <v>1.036120509652519</v>
       </c>
       <c r="E6">
-        <v>1.025403900349432</v>
+        <v>1.024129205102485</v>
       </c>
       <c r="F6">
-        <v>1.02922358822533</v>
+        <v>1.028556907347805</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055173670425991</v>
+        <v>1.053909387785219</v>
       </c>
       <c r="J6">
-        <v>1.041118181838123</v>
+        <v>1.039611088217567</v>
       </c>
       <c r="K6">
-        <v>1.04783018230027</v>
+        <v>1.045551557580158</v>
       </c>
       <c r="L6">
-        <v>1.034951469498273</v>
+        <v>1.033690833392296</v>
       </c>
       <c r="M6">
-        <v>1.038729284464163</v>
+        <v>1.038069884495631</v>
       </c>
       <c r="N6">
-        <v>1.01708003538746</v>
+        <v>1.017393362766402</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039224020121195</v>
+        <v>1.03870214814168</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04490438602171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043303344814989</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023815191955588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021498715954654</v>
+        <v>1.020046586116564</v>
       </c>
       <c r="D7">
-        <v>1.037516060741186</v>
+        <v>1.035315402330376</v>
       </c>
       <c r="E7">
-        <v>1.024359527407255</v>
+        <v>1.023168714273757</v>
       </c>
       <c r="F7">
-        <v>1.02823138558066</v>
+        <v>1.027603757186382</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.0547669005503</v>
+        <v>1.05356488977551</v>
       </c>
       <c r="J7">
-        <v>1.040362128300214</v>
+        <v>1.038945128240035</v>
       </c>
       <c r="K7">
-        <v>1.047178984102191</v>
+        <v>1.045002631219722</v>
       </c>
       <c r="L7">
-        <v>1.034169676053293</v>
+        <v>1.032992418897904</v>
       </c>
       <c r="M7">
-        <v>1.037997725140598</v>
+        <v>1.037377170577234</v>
       </c>
       <c r="N7">
-        <v>1.016809202037803</v>
+        <v>1.017234824093207</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.038645038705125</v>
+        <v>1.038153909938453</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044448113132804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042919807051999</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023698042881486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015956544477535</v>
+        <v>1.014878526700247</v>
       </c>
       <c r="D8">
-        <v>1.033630587574473</v>
+        <v>1.031856710138318</v>
       </c>
       <c r="E8">
-        <v>1.019897660757848</v>
+        <v>1.019051217597468</v>
       </c>
       <c r="F8">
-        <v>1.024008777484044</v>
+        <v>1.023542007372333</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05299811811715</v>
+        <v>1.052053250526411</v>
       </c>
       <c r="J8">
-        <v>1.03711179362719</v>
+        <v>1.03606376502399</v>
       </c>
       <c r="K8">
-        <v>1.044373494355509</v>
+        <v>1.042621782684493</v>
       </c>
       <c r="L8">
-        <v>1.030814685625725</v>
+        <v>1.02997916647852</v>
       </c>
       <c r="M8">
-        <v>1.034873066126994</v>
+        <v>1.034412256967924</v>
       </c>
       <c r="N8">
-        <v>1.015639643225577</v>
+        <v>1.016484596740297</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036172069928567</v>
+        <v>1.035807368074564</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042468972955368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041241385151409</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023178763960425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005704478672613</v>
+        <v>1.005309003401871</v>
       </c>
       <c r="D9">
-        <v>1.026457482159216</v>
+        <v>1.025463073231935</v>
       </c>
       <c r="E9">
-        <v>1.011681013736755</v>
+        <v>1.011461206667675</v>
       </c>
       <c r="F9">
-        <v>1.016278972423529</v>
+        <v>1.016107175089484</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049633590334748</v>
+        <v>1.049154969354708</v>
       </c>
       <c r="J9">
-        <v>1.031057392861815</v>
+        <v>1.030675669991109</v>
       </c>
       <c r="K9">
-        <v>1.039135409109909</v>
+        <v>1.038156109712292</v>
       </c>
       <c r="L9">
-        <v>1.02458737540416</v>
+        <v>1.02437103088917</v>
       </c>
       <c r="M9">
-        <v>1.02911334271959</v>
+        <v>1.028944220281864</v>
       </c>
       <c r="N9">
-        <v>1.01345065737691</v>
+        <v>1.014984102813884</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.031613592715873</v>
+        <v>1.031479741955614</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038762154878063</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038080440363019</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022175308359159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9986824142608743</v>
+        <v>0.9988020902589487</v>
       </c>
       <c r="D10">
-        <v>1.021578512285949</v>
+        <v>1.021152744907361</v>
       </c>
       <c r="E10">
-        <v>1.006107519954161</v>
+        <v>1.006359580877132</v>
       </c>
       <c r="F10">
-        <v>1.011262514243769</v>
+        <v>1.01131456740321</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04730857597893</v>
+        <v>1.047171896332799</v>
       </c>
       <c r="J10">
-        <v>1.026948405795821</v>
+        <v>1.027063316630367</v>
       </c>
       <c r="K10">
-        <v>1.035568791690803</v>
+        <v>1.035150301770224</v>
       </c>
       <c r="L10">
-        <v>1.020367369941904</v>
+        <v>1.020614952704131</v>
       </c>
       <c r="M10">
-        <v>1.025431355009346</v>
+        <v>1.025482495323386</v>
       </c>
       <c r="N10">
-        <v>1.011988829744431</v>
+        <v>1.014110808003071</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.02875155643326</v>
+        <v>1.028792028652191</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036257115233664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035973617183311</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021507588384776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9967373853722488</v>
+        <v>0.9969724182195445</v>
       </c>
       <c r="D11">
-        <v>1.020331102279392</v>
+        <v>1.020044473667603</v>
       </c>
       <c r="E11">
-        <v>1.004754260710996</v>
+        <v>1.005091448817251</v>
       </c>
       <c r="F11">
-        <v>1.011701221807647</v>
+        <v>1.011802706373488</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046898264566134</v>
+        <v>1.046842946889729</v>
       </c>
       <c r="J11">
-        <v>1.026246525640285</v>
+        <v>1.026471692794455</v>
       </c>
       <c r="K11">
-        <v>1.034879525682359</v>
+        <v>1.03459802819611</v>
       </c>
       <c r="L11">
-        <v>1.019587072147007</v>
+        <v>1.019917982399591</v>
       </c>
       <c r="M11">
-        <v>1.026405793191963</v>
+        <v>1.026505421356718</v>
       </c>
       <c r="N11">
-        <v>1.011937071470218</v>
+        <v>1.014301105572885</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029963260259675</v>
+        <v>1.030042064994338</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035802582523816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035619157748927</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021492904367342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9963921474588819</v>
+        <v>0.9966116809037221</v>
       </c>
       <c r="D12">
-        <v>1.02015640518657</v>
+        <v>1.019868642739017</v>
       </c>
       <c r="E12">
-        <v>1.00461599655729</v>
+        <v>1.00492078012786</v>
       </c>
       <c r="F12">
-        <v>1.0127439161338</v>
+        <v>1.012838197623444</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046947167465619</v>
+        <v>1.046888149098528</v>
       </c>
       <c r="J12">
-        <v>1.026349986857291</v>
+        <v>1.026560135970388</v>
       </c>
       <c r="K12">
-        <v>1.034907367249218</v>
+        <v>1.034624839990919</v>
       </c>
       <c r="L12">
-        <v>1.01965529248648</v>
+        <v>1.019954309099923</v>
       </c>
       <c r="M12">
-        <v>1.027630968854669</v>
+        <v>1.027723503060977</v>
       </c>
       <c r="N12">
-        <v>1.012123656826732</v>
+        <v>1.0145151000134</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.031261315152503</v>
+        <v>1.031334483471787</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035822267367902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035638114125774</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02157169478497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9972727636400598</v>
+        <v>0.9973596853903619</v>
       </c>
       <c r="D13">
-        <v>1.02081574330425</v>
+        <v>1.020407285569559</v>
       </c>
       <c r="E13">
-        <v>1.005419571902995</v>
+        <v>1.005585231864558</v>
       </c>
       <c r="F13">
-        <v>1.014349344641037</v>
+        <v>1.014386512173378</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047369416848132</v>
+        <v>1.047232901420018</v>
       </c>
       <c r="J13">
-        <v>1.027099950107734</v>
+        <v>1.027183178455385</v>
       </c>
       <c r="K13">
-        <v>1.035511991666183</v>
+        <v>1.035110928768838</v>
       </c>
       <c r="L13">
-        <v>1.020399985199607</v>
+        <v>1.020562527105151</v>
       </c>
       <c r="M13">
-        <v>1.029163573498592</v>
+        <v>1.029200057303532</v>
       </c>
       <c r="N13">
-        <v>1.012519780492394</v>
+        <v>1.014733445518392</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032751494259952</v>
+        <v>1.032780335281252</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036247266627026</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035979055612505</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021734895605658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9984298653059845</v>
+        <v>0.9983749814905131</v>
       </c>
       <c r="D14">
-        <v>1.021645390582925</v>
+        <v>1.021101850600299</v>
       </c>
       <c r="E14">
-        <v>1.006395580646591</v>
+        <v>1.006420258829147</v>
       </c>
       <c r="F14">
-        <v>1.015699219135509</v>
+        <v>1.015675809247637</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047826640725709</v>
+        <v>1.047604724715414</v>
       </c>
       <c r="J14">
-        <v>1.027903857558308</v>
+        <v>1.027851270664353</v>
       </c>
       <c r="K14">
-        <v>1.036186783285732</v>
+        <v>1.035652956909741</v>
       </c>
       <c r="L14">
-        <v>1.021214697195433</v>
+        <v>1.021238917080231</v>
       </c>
       <c r="M14">
-        <v>1.030347611112261</v>
+        <v>1.030324625697565</v>
       </c>
       <c r="N14">
-        <v>1.012886496803717</v>
+        <v>1.014887643243266</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.03386160536525</v>
+        <v>1.033843437498309</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036725787122236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036363839246871</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021886406681683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9989972961546569</v>
+        <v>0.9988812047174961</v>
       </c>
       <c r="D15">
-        <v>1.022046045932491</v>
+        <v>1.021442241117917</v>
       </c>
       <c r="E15">
-        <v>1.00685654080229</v>
+        <v>1.006822782668636</v>
       </c>
       <c r="F15">
-        <v>1.016201639140917</v>
+        <v>1.016152147887535</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048030944968088</v>
+        <v>1.047771324086399</v>
       </c>
       <c r="J15">
-        <v>1.028260506577998</v>
+        <v>1.02814922995559</v>
       </c>
       <c r="K15">
-        <v>1.036494159660611</v>
+        <v>1.035901061749197</v>
       </c>
       <c r="L15">
-        <v>1.021579085322539</v>
+        <v>1.021545949118758</v>
       </c>
       <c r="M15">
-        <v>1.03075408269419</v>
+        <v>1.030705481579525</v>
       </c>
       <c r="N15">
-        <v>1.013031056212348</v>
+        <v>1.014936338272397</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034220569620079</v>
+        <v>1.034182155898259</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036948970096535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036545683707365</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021947772859076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001781374365425</v>
+        <v>1.0014140980503</v>
       </c>
       <c r="D16">
-        <v>1.023971363787222</v>
+        <v>1.023106157541221</v>
       </c>
       <c r="E16">
-        <v>1.009037716365569</v>
+        <v>1.008777122508097</v>
       </c>
       <c r="F16">
-        <v>1.018051389314708</v>
+        <v>1.017894776296987</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048939598750785</v>
+        <v>1.048519255995411</v>
       </c>
       <c r="J16">
-        <v>1.029847933559111</v>
+        <v>1.029495116985517</v>
       </c>
       <c r="K16">
-        <v>1.037885440702701</v>
+        <v>1.037034899140266</v>
       </c>
       <c r="L16">
-        <v>1.023209482968159</v>
+        <v>1.022953473619273</v>
       </c>
       <c r="M16">
-        <v>1.032066449981082</v>
+        <v>1.031912529107866</v>
       </c>
       <c r="N16">
-        <v>1.013570452345822</v>
+        <v>1.015080065621504</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035218984372273</v>
+        <v>1.035097323696416</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037935806280925</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037350794723377</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02218616589546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003323876340782</v>
+        <v>1.002846054949879</v>
       </c>
       <c r="D17">
-        <v>1.025024443428635</v>
+        <v>1.024034960180708</v>
       </c>
       <c r="E17">
-        <v>1.010212988671659</v>
+        <v>1.009858602887434</v>
       </c>
       <c r="F17">
-        <v>1.018771049353102</v>
+        <v>1.018566997615796</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049401053349284</v>
+        <v>1.048906090466939</v>
       </c>
       <c r="J17">
-        <v>1.030654919413859</v>
+        <v>1.030195301098908</v>
       </c>
       <c r="K17">
-        <v>1.038607483118204</v>
+        <v>1.037634296756256</v>
       </c>
       <c r="L17">
-        <v>1.024044285889207</v>
+        <v>1.023695955273681</v>
       </c>
       <c r="M17">
-        <v>1.032457768765455</v>
+        <v>1.032257127794054</v>
       </c>
       <c r="N17">
-        <v>1.013796484357023</v>
+        <v>1.015141588854157</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035398699758959</v>
+        <v>1.035240095130051</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038448892833222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037777413725202</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022292886240014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003880872832853</v>
+        <v>1.00339858357047</v>
       </c>
       <c r="D18">
-        <v>1.025370243622244</v>
+        <v>1.024361132030285</v>
       </c>
       <c r="E18">
-        <v>1.010570050531303</v>
+        <v>1.010223847804887</v>
       </c>
       <c r="F18">
-        <v>1.018409802881331</v>
+        <v>1.018203187862523</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049484180894101</v>
+        <v>1.048980148101321</v>
       </c>
       <c r="J18">
-        <v>1.030798062971357</v>
+        <v>1.030333808517027</v>
       </c>
       <c r="K18">
-        <v>1.038764966214017</v>
+        <v>1.037772204716012</v>
       </c>
       <c r="L18">
-        <v>1.024208791792063</v>
+        <v>1.023868407445492</v>
       </c>
       <c r="M18">
-        <v>1.031918149514995</v>
+        <v>1.031714937875312</v>
       </c>
       <c r="N18">
-        <v>1.013740534771546</v>
+        <v>1.015075966912286</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034733180893828</v>
+        <v>1.034572510419079</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038548636038513</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037862178959371</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022275547545001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00351977066359</v>
+        <v>1.003123185831683</v>
       </c>
       <c r="D19">
-        <v>1.025064818212817</v>
+        <v>1.02412814373311</v>
       </c>
       <c r="E19">
-        <v>1.010166628934814</v>
+        <v>1.009914583299218</v>
       </c>
       <c r="F19">
-        <v>1.016964844124725</v>
+        <v>1.016794092597819</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049216353550248</v>
+        <v>1.048760254384383</v>
       </c>
       <c r="J19">
-        <v>1.030316607824644</v>
+        <v>1.029934779475212</v>
       </c>
       <c r="K19">
-        <v>1.038402183632812</v>
+        <v>1.037480614868763</v>
       </c>
       <c r="L19">
-        <v>1.023748535932744</v>
+        <v>1.023500707403697</v>
       </c>
       <c r="M19">
-        <v>1.03043402088955</v>
+        <v>1.030266077082242</v>
       </c>
       <c r="N19">
-        <v>1.013432275970338</v>
+        <v>1.014874911896086</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.033231934646598</v>
+        <v>1.033099104951294</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038298516472125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037663022984804</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022145801900463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000557887708994</v>
+        <v>1.000504519293281</v>
       </c>
       <c r="D20">
-        <v>1.022898845912855</v>
+        <v>1.02229557037532</v>
       </c>
       <c r="E20">
-        <v>1.007605355310143</v>
+        <v>1.007695210637338</v>
       </c>
       <c r="F20">
-        <v>1.012595647418377</v>
+        <v>1.012572443190903</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047949772712487</v>
+        <v>1.047703479513695</v>
       </c>
       <c r="J20">
-        <v>1.028067320647049</v>
+        <v>1.028016006411764</v>
       </c>
       <c r="K20">
-        <v>1.036550652582076</v>
+        <v>1.035957389826238</v>
       </c>
       <c r="L20">
-        <v>1.021515779101431</v>
+        <v>1.021604085304666</v>
       </c>
       <c r="M20">
-        <v>1.026420575228377</v>
+        <v>1.026397766028129</v>
       </c>
       <c r="N20">
-        <v>1.01240327668856</v>
+        <v>1.014278811932202</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.02952375540007</v>
+        <v>1.029505704081875</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036993342740467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036590370854847</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021692507256435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9950350834590305</v>
+        <v>0.995548900957992</v>
       </c>
       <c r="D21">
-        <v>1.01904718937839</v>
+        <v>1.019013214788338</v>
       </c>
       <c r="E21">
-        <v>1.003197872646081</v>
+        <v>1.003822338399601</v>
       </c>
       <c r="F21">
-        <v>1.008311717574923</v>
+        <v>1.008535670723559</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046053455890452</v>
+        <v>1.046161057979162</v>
       </c>
       <c r="J21">
-        <v>1.024741862509425</v>
+        <v>1.025233906833766</v>
       </c>
       <c r="K21">
-        <v>1.033676474137576</v>
+        <v>1.033643112336298</v>
       </c>
       <c r="L21">
-        <v>1.018118912569983</v>
+        <v>1.018731655458477</v>
       </c>
       <c r="M21">
-        <v>1.023137314546112</v>
+        <v>1.023357116759693</v>
       </c>
       <c r="N21">
-        <v>1.011181851484694</v>
+        <v>1.013935794393823</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.026883891704968</v>
+        <v>1.027057853767183</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034964433862342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034957668865142</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021177021511701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9915328458783447</v>
+        <v>0.9924072596721468</v>
       </c>
       <c r="D22">
-        <v>1.016608660239015</v>
+        <v>1.016935653967437</v>
       </c>
       <c r="E22">
-        <v>1.000416763524961</v>
+        <v>1.001381754914621</v>
       </c>
       <c r="F22">
-        <v>1.005727721370077</v>
+        <v>1.006109250411683</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044849160135528</v>
+        <v>1.045180567962786</v>
       </c>
       <c r="J22">
-        <v>1.022649222416113</v>
+        <v>1.023484361292885</v>
       </c>
       <c r="K22">
-        <v>1.031858123632591</v>
+        <v>1.032178915921929</v>
       </c>
       <c r="L22">
-        <v>1.015979968767232</v>
+        <v>1.016925888577437</v>
       </c>
       <c r="M22">
-        <v>1.021186558569141</v>
+        <v>1.021560645645921</v>
       </c>
       <c r="N22">
-        <v>1.010417652860194</v>
+        <v>1.013721012106243</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.025339967497045</v>
+        <v>1.025636038675575</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033665282485486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.0339076287036</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020852361560279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9933796538988721</v>
+        <v>0.9940491218967673</v>
       </c>
       <c r="D23">
-        <v>1.017887509079794</v>
+        <v>1.018012441394435</v>
       </c>
       <c r="E23">
-        <v>1.001878458259683</v>
+        <v>1.002649400259112</v>
       </c>
       <c r="F23">
-        <v>1.00709454989865</v>
+        <v>1.007386490683882</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045479865880865</v>
+        <v>1.045685280378175</v>
       </c>
       <c r="J23">
-        <v>1.02374659267964</v>
+        <v>1.024386897396649</v>
       </c>
       <c r="K23">
-        <v>1.032807943795367</v>
+        <v>1.032930568410753</v>
       </c>
       <c r="L23">
-        <v>1.01710084310927</v>
+        <v>1.017856954831529</v>
       </c>
       <c r="M23">
-        <v>1.022217174177005</v>
+        <v>1.022503571354031</v>
       </c>
       <c r="N23">
-        <v>1.01081266841277</v>
+        <v>1.013781708950285</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.02615564780369</v>
+        <v>1.026382316560894</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034327206677985</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034428495850551</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021012978183091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000506382323763</v>
+        <v>1.000468347496682</v>
       </c>
       <c r="D24">
-        <v>1.022843635792815</v>
+        <v>1.022252486903356</v>
       </c>
       <c r="E24">
-        <v>1.007541342149096</v>
+        <v>1.007648256887517</v>
       </c>
       <c r="F24">
-        <v>1.012385183271845</v>
+        <v>1.01236863355459</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047900928607117</v>
+        <v>1.047662955181944</v>
       </c>
       <c r="J24">
-        <v>1.027984953399069</v>
+        <v>1.027948380678875</v>
       </c>
       <c r="K24">
-        <v>1.036481125787065</v>
+        <v>1.035899777053494</v>
       </c>
       <c r="L24">
-        <v>1.021437305135621</v>
+        <v>1.021542378751652</v>
       </c>
       <c r="M24">
-        <v>1.026198236974911</v>
+        <v>1.026181968785686</v>
       </c>
       <c r="N24">
-        <v>1.012347559692703</v>
+        <v>1.01424067032474</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.029306449234866</v>
+        <v>1.029293573849626</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036916820173611</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036519598789859</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021665332047478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008441411396006</v>
+        <v>1.007845470537108</v>
       </c>
       <c r="D25">
-        <v>1.028380559312907</v>
+        <v>1.027165178634854</v>
       </c>
       <c r="E25">
-        <v>1.013875488795947</v>
+        <v>1.013470099557271</v>
       </c>
       <c r="F25">
-        <v>1.018324577949169</v>
+        <v>1.018065918762797</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050550754720228</v>
+        <v>1.049938636891655</v>
       </c>
       <c r="J25">
-        <v>1.032687990089908</v>
+        <v>1.032111657574686</v>
       </c>
       <c r="K25">
-        <v>1.040553718186728</v>
+        <v>1.039355934057883</v>
       </c>
       <c r="L25">
-        <v>1.026262157640433</v>
+        <v>1.025862847322196</v>
       </c>
       <c r="M25">
-        <v>1.030644935741319</v>
+        <v>1.030390111548317</v>
       </c>
       <c r="N25">
-        <v>1.014049280677266</v>
+        <v>1.015357105909131</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.032825760040531</v>
+        <v>1.032624081570577</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039793479239855</v>
+        <v>1.038960089772063</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022450487713638</v>
       </c>
     </row>
   </sheetData>
